--- a/The Tone Cushion/01 - PCB/BOM.xlsx
+++ b/The Tone Cushion/01 - PCB/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dev\101 - Products\Products\The Tone Cushion\01 - PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8059E91F-9C70-4645-A22B-2A628435B4F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1858B-60A9-4A16-B652-A19F7960EABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,10 +562,10 @@
     <t>DC JACK</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>PCB</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1957,11 +1957,11 @@
         <v>1</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2041,23 +2041,23 @@
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
       <c r="D46" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="G46" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G47" s="15">
         <f>SUM(G2:G46)</f>
-        <v>20.647100000000002</v>
+        <v>21.327100000000002</v>
       </c>
     </row>
   </sheetData>
